--- a/biology/Botanique/Eau_de_saule/Eau_de_saule.xlsx
+++ b/biology/Botanique/Eau_de_saule/Eau_de_saule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eau de saule, obtenue par macération de saule, permet, comme les auxines, de faciliter le bouturage des végétaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut la fabriquer par exemple en écrasant avec un marteau quelques rameaux de saule (toutes espèces confondues sauf le saule marsault) qu’on laisse tremper pendant 24 heures dans de l’eau afin d'extraire l'acide salicylique et l'acide β-indole butyrique naturellement présent dans l'écorce des saules. On récupère cette eau et on y met à bouturer les tiges de la plante. L'eau de saule favorise la rhizogenèse.
 Mais la meilleure recette de fabrication consiste à plonger quelques grosses boutures de saule dans une bassine d’eau pendant 4 à 5 semaines.
@@ -548,7 +562,9 @@
           <t>La théorie de « l’eau de Saule »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aspirine mélangée à de l’eau est souvent utilisée pour prolonger la durée de vie des fleurs coupées (1 comprimé d’aspirine 500 mg pour 5 litres d’eau). L’aspirine est un anti-coagulant naturel.
 L’aspirine acide acétylsalicylique est un dérivé de l’acide salicylique, un produit qu’on trouve naturellement dans l’écorce des saules. Il existe d’autres hormones (auxine) facilitant l’enracinement.
